--- a/AngoliRoll.xlsx
+++ b/AngoliRoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerardo\Desktop\V 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1F6D1D-39CD-46A4-BC23-C18526870EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3016CDB-C7A3-433E-BD59-B25EB2EEB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>AVERAGE</t>
   </si>
@@ -88,12 +88,6 @@
   </si>
   <si>
     <t>MAX UNC</t>
-  </si>
-  <si>
-    <t>INC +</t>
-  </si>
-  <si>
-    <t>INC -</t>
   </si>
   <si>
     <t xml:space="preserve">Mean </t>
@@ -213,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +256,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,12 +315,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -352,12 +347,12 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,6 +1143,45 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.68074391266172252"/>
+                  <c:y val="2.1229609094682848E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t>y = 0.9813x + 1.5772</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t>R² = 0.9994</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1800"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2951,8 +2985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,112 +2997,112 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="V1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="W1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="19" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -7238,8 +7272,8 @@
       <c r="C82" t="s">
         <v>5</v>
       </c>
-      <c r="K82" s="17" t="s">
-        <v>19</v>
+      <c r="K82" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -7252,16 +7286,16 @@
         <f>MAX(J80:S80,AC80:AK80)</f>
         <v>1.4012487904575055</v>
       </c>
-      <c r="K83" s="17" t="s">
-        <v>20</v>
+      <c r="K83" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
-      <c r="K84" s="17" t="s">
-        <v>21</v>
+      <c r="K84" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
@@ -7279,10 +7313,10 @@
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
       <c r="D86" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -7290,17 +7324,17 @@
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
       <c r="D87" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R87" s="4"/>
       <c r="S87" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T87" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
@@ -7729,31 +7763,27 @@
       <c r="V106" s="4"/>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q107" s="18"/>
+      <c r="Q107" s="17"/>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A109" s="16"/>
-      <c r="B109" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" s="16" t="s">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D109" s="16" t="s">
+      <c r="D109" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H109" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
       <c r="K109" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
@@ -7777,14 +7807,6 @@
         <v>0.51377709325321608</v>
       </c>
       <c r="F110" s="7"/>
-      <c r="G110" s="14">
-        <f>B110+E110</f>
-        <v>-86.712256240080123</v>
-      </c>
-      <c r="H110" s="14">
-        <f>B110-E110</f>
-        <v>-87.739810426586544</v>
-      </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
@@ -7807,14 +7829,6 @@
         <v>0.77998272731853124</v>
       </c>
       <c r="F111" s="7"/>
-      <c r="G111" s="14">
-        <f t="shared" ref="G111:G128" si="8">B111+E111</f>
-        <v>-78.756217272681454</v>
-      </c>
-      <c r="H111" s="14">
-        <f t="shared" ref="H111:H128" si="9">B111-E111</f>
-        <v>-80.316182727318505</v>
-      </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
@@ -7837,16 +7851,8 @@
         <v>0.799616825476269</v>
       </c>
       <c r="F112" s="7"/>
-      <c r="G112" s="14">
-        <f t="shared" si="8"/>
-        <v>-67.893299841190398</v>
-      </c>
-      <c r="H112" s="14">
-        <f t="shared" si="9"/>
-        <v>-69.492533492142925</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>-60</v>
       </c>
@@ -7867,16 +7873,8 @@
         <v>0.61111547699989854</v>
       </c>
       <c r="F113" s="7"/>
-      <c r="G113" s="14">
-        <f t="shared" si="8"/>
-        <v>-57.262901189666763</v>
-      </c>
-      <c r="H113" s="14">
-        <f t="shared" si="9"/>
-        <v>-58.485132143666561</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>-50</v>
       </c>
@@ -7897,16 +7895,8 @@
         <v>0.42141419095586097</v>
       </c>
       <c r="F114" s="7"/>
-      <c r="G114" s="14">
-        <f t="shared" si="8"/>
-        <v>-46.466252475710782</v>
-      </c>
-      <c r="H114" s="14">
-        <f t="shared" si="9"/>
-        <v>-47.309080857622497</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>-40</v>
       </c>
@@ -7927,16 +7917,8 @@
         <v>0.45902346506801905</v>
       </c>
       <c r="F115" s="7"/>
-      <c r="G115" s="14">
-        <f t="shared" si="8"/>
-        <v>-36.608293201598656</v>
-      </c>
-      <c r="H115" s="14">
-        <f t="shared" si="9"/>
-        <v>-37.526340131734699</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>-30</v>
       </c>
@@ -7957,16 +7939,8 @@
         <v>0.35829060759602022</v>
       </c>
       <c r="F116" s="7"/>
-      <c r="G116" s="14">
-        <f t="shared" si="8"/>
-        <v>-26.615609392403979</v>
-      </c>
-      <c r="H116" s="14">
-        <f t="shared" si="9"/>
-        <v>-27.332190607596022</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>-20</v>
       </c>
@@ -7987,16 +7961,8 @@
         <v>0.38017611100824844</v>
       </c>
       <c r="F117" s="7"/>
-      <c r="G117" s="14">
-        <f t="shared" si="8"/>
-        <v>-16.427640555658414</v>
-      </c>
-      <c r="H117" s="14">
-        <f t="shared" si="9"/>
-        <v>-17.187992777674907</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>-10</v>
       </c>
@@ -8017,16 +7983,8 @@
         <v>0.32647930061308822</v>
       </c>
       <c r="F118" s="7"/>
-      <c r="G118" s="14">
-        <f t="shared" si="8"/>
-        <v>-7.0351540327202473</v>
-      </c>
-      <c r="H118" s="14">
-        <f t="shared" si="9"/>
-        <v>-7.6881126339464236</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>0</v>
       </c>
@@ -8047,16 +8005,8 @@
         <v>0.52626520896739104</v>
       </c>
       <c r="F119" s="7"/>
-      <c r="G119" s="14">
-        <f t="shared" si="8"/>
-        <v>3.5447318756340573</v>
-      </c>
-      <c r="H119" s="14">
-        <f t="shared" si="9"/>
-        <v>2.4922014576992755</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>10</v>
       </c>
@@ -8077,16 +8027,8 @@
         <v>0.45502143602885647</v>
       </c>
       <c r="F120" s="7"/>
-      <c r="G120" s="14">
-        <f t="shared" si="8"/>
-        <v>13.106638102695527</v>
-      </c>
-      <c r="H120" s="14">
-        <f t="shared" si="9"/>
-        <v>12.196595230637815</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>20</v>
       </c>
@@ -8107,16 +8049,8 @@
         <v>0.45296330453386319</v>
       </c>
       <c r="F121" s="7"/>
-      <c r="G121" s="14">
-        <f t="shared" si="8"/>
-        <v>22.703896637867203</v>
-      </c>
-      <c r="H121" s="14">
-        <f t="shared" si="9"/>
-        <v>21.797970028799476</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>30</v>
       </c>
@@ -8137,16 +8071,8 @@
         <v>0.46481996715331275</v>
       </c>
       <c r="F122" s="7"/>
-      <c r="G122" s="14">
-        <f t="shared" si="8"/>
-        <v>31.939586633819978</v>
-      </c>
-      <c r="H122" s="14">
-        <f t="shared" si="9"/>
-        <v>31.00994669951335</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>40</v>
       </c>
@@ -8167,16 +8093,8 @@
         <v>0.63759004877476744</v>
       </c>
       <c r="F123" s="7"/>
-      <c r="G123" s="14">
-        <f t="shared" si="8"/>
-        <v>42.086440048774769</v>
-      </c>
-      <c r="H123" s="14">
-        <f t="shared" si="9"/>
-        <v>40.811259951225232</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>50</v>
       </c>
@@ -8197,16 +8115,8 @@
         <v>0.48712658410384246</v>
       </c>
       <c r="F124" s="7"/>
-      <c r="G124" s="14">
-        <f t="shared" si="8"/>
-        <v>51.068176584103824</v>
-      </c>
-      <c r="H124" s="14">
-        <f t="shared" si="9"/>
-        <v>50.093923415896143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>60</v>
       </c>
@@ -8227,16 +8137,8 @@
         <v>0.67744499367044753</v>
       </c>
       <c r="F125" s="7"/>
-      <c r="G125" s="14">
-        <f t="shared" si="8"/>
-        <v>61.715261660337127</v>
-      </c>
-      <c r="H125" s="14">
-        <f t="shared" si="9"/>
-        <v>60.36037167299623</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>70</v>
       </c>
@@ -8257,16 +8159,8 @@
         <v>0.66652069973704953</v>
       </c>
       <c r="F126" s="7"/>
-      <c r="G126" s="14">
-        <f t="shared" si="8"/>
-        <v>71.294170699737052</v>
-      </c>
-      <c r="H126" s="14">
-        <f t="shared" si="9"/>
-        <v>69.961129300262954</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>80</v>
       </c>
@@ -8287,16 +8181,8 @@
         <v>0.70116159299517045</v>
       </c>
       <c r="F127" s="7"/>
-      <c r="G127" s="14">
-        <f t="shared" si="8"/>
-        <v>80.000861592995207</v>
-      </c>
-      <c r="H127" s="14">
-        <f t="shared" si="9"/>
-        <v>78.598538407004853</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>90</v>
       </c>
@@ -8317,22 +8203,16 @@
         <v>0.41513104806671042</v>
       </c>
       <c r="F128" s="7"/>
-      <c r="G128" s="14">
-        <f t="shared" si="8"/>
-        <v>86.417631048066724</v>
-      </c>
-      <c r="H128" s="14">
-        <f t="shared" si="9"/>
-        <v>85.5873689519333</v>
-      </c>
-    </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E129" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E130" s="15">
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
+    </row>
+    <row r="130" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E130" s="14">
         <f>MAX(E110:E128)</f>
         <v>0.799616825476269</v>
       </c>
